--- a/biology/Zoologie/Hyles/Hyles.xlsx
+++ b/biology/Zoologie/Hyles/Hyles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyles est un genre d'insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, tribu des Macroglossini, sous-tribu des Choerocampina.
 </t>
@@ -511,24 +523,94 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hyles a été décrit par l'entomologiste allemand Jakob Hübner, en 1819[1].
-L'espèce type pour le genre est Hyles gallii (Rottemburg, 1775)
-Synonymie
-Celerio Oken, 1815 [2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Hyles a été décrit par l'entomologiste allemand Jakob Hübner, en 1819.
+L'espèce type pour le genre est Hyles gallii (Rottemburg, 1775)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hyles</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyles</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Celerio Oken, 1815 
 Thaumas Hübner, 1819
-Celerio Agassiz, 1846[3]
-Hawaiina Tutt, 1903[4]
-Turneria Tutt, 1903[4]
+Celerio Agassiz, 1846
+Hawaiina Tutt, 1903
+Turneria Tutt, 1903
 Weismannia Tutt, 1904
 Danneria Eitschberger &amp; Zolotuhin, 1998
 Eremohyles Eitschberger &amp; Zolotuhin, 1998
 Hippohyles Eitschberger &amp; Zolotuhin, 1998
 Rommeliana Eitschberger &amp; Zolotuhin, 1998
-Surholtia Eitschberger &amp; Zolotuhin, 1998
-Taxinomie
-Liste des espèces
+Surholtia Eitschberger &amp; Zolotuhin, 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hyles</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyles</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces
 Hyles annei (Guerin-Meneville, 1839)
 Hyles centralasiae (Staudinger, 1887)
 Hyles apocyni
@@ -544,7 +626,7 @@
 Hyles euphorbiarum (Guerin-Meneville &amp; Percheron, 1835)
 Hyles exilis
 Hyles gallii (Rottemburg, 1775) — Sphinx de la garance. Espèce type.
-Hyles hippophaes (Esper, [1793]) — Sphinx de l'argousier.
+Hyles hippophaes (Esper, ) — Sphinx de l'argousier.
 Hyles lineata (Fabricius, 1775) — Sphinx orangé.
 Hyles livornica (Esper, 1779) — Sphinx livournien
 Hyles livornicoides (T.P. Lucas, 1892).
